--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="518">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -2748,6 +2748,36 @@
     <t xml:space="preserve">たすけて……たすけて……</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">和ロリ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ふりふり</t>
   </si>
   <si>
@@ -2905,6 +2935,36 @@
   </si>
   <si>
     <t xml:space="preserve">つつしんでおことわりさせてください……</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">和ロリ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">服を着せられただけでここまで弱るとは。鍛錬が足りていませんね</t>
@@ -3803,8 +3863,8 @@
   </sheetPr>
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E348" activeCellId="0" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11125,10 +11185,10 @@
         <v>1</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11136,19 +11196,19 @@
         <v>361</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O309" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D309" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O309" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11156,19 +11216,19 @@
         <v>361</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11176,19 +11236,19 @@
         <v>361</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O311" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D311" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O311" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11199,7 +11259,7 @@
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>1</v>
@@ -11208,7 +11268,7 @@
         <v>52</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11219,7 +11279,7 @@
         <v>24</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>1</v>
@@ -11228,7 +11288,7 @@
         <v>87</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11239,7 +11299,7 @@
         <v>27</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1</v>
@@ -11248,7 +11308,7 @@
         <v>29</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11259,16 +11319,16 @@
         <v>21</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11279,7 +11339,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1</v>
@@ -11288,7 +11348,7 @@
         <v>31</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11299,7 +11359,7 @@
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1</v>
@@ -11308,7 +11368,7 @@
         <v>31</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,19 +11376,19 @@
         <v>361</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O318" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D318" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O318" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11336,19 +11396,19 @@
         <v>361</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O319" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D319" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O319" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11356,19 +11416,19 @@
         <v>361</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,19 +11436,19 @@
         <v>361</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O321" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D321" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O321" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11396,19 +11456,19 @@
         <v>361</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O322" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D322" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O322" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11419,7 +11479,7 @@
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>1</v>
@@ -11428,7 +11488,7 @@
         <v>31</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11436,19 +11496,19 @@
         <v>361</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11456,19 +11516,19 @@
         <v>361</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11476,19 +11536,19 @@
         <v>361</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O326" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D326" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O326" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11496,19 +11556,19 @@
         <v>361</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11519,7 +11579,7 @@
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1</v>
@@ -11528,7 +11588,7 @@
         <v>52</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11536,19 +11596,19 @@
         <v>361</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11556,19 +11616,19 @@
         <v>361</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O330" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D330" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O330" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,22 +11636,22 @@
         <v>361</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
         <v>361</v>
       </c>
@@ -11599,16 +11659,16 @@
         <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>99</v>
+        <v>401</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11619,7 +11679,7 @@
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11628,7 +11688,7 @@
         <v>29</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11639,7 +11699,7 @@
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11648,7 +11708,7 @@
         <v>42</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11656,19 +11716,19 @@
         <v>361</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O335" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D335" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O335" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11679,7 +11739,7 @@
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11688,7 +11748,7 @@
         <v>31</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,19 +11756,19 @@
         <v>361</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O337" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D337" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O337" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11716,19 +11776,19 @@
         <v>361</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O338" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D338" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O338" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,19 +11796,19 @@
         <v>361</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11756,19 +11816,19 @@
         <v>361</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11779,7 +11839,7 @@
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11788,7 +11848,7 @@
         <v>29</v>
       </c>
       <c r="O341" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11796,19 +11856,19 @@
         <v>361</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11816,22 +11876,22 @@
         <v>361</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O343" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
         <v>361</v>
       </c>
@@ -11839,16 +11899,16 @@
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>73</v>
+        <v>401</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11859,7 +11919,7 @@
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11868,7 +11928,7 @@
         <v>87</v>
       </c>
       <c r="O345" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11876,19 +11936,19 @@
         <v>361</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11896,19 +11956,19 @@
         <v>361</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O347" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D347" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E347" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O347" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11916,19 +11976,19 @@
         <v>361</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O348" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D348" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O348" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11936,19 +11996,19 @@
         <v>361</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O349" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D349" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E349" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O349" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,16 +12019,16 @@
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O350" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11976,7 +12036,7 @@
         <v>361</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>1</v>
@@ -11993,13 +12053,13 @@
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O352" s="3" t="s">
         <v>55</v>
@@ -12016,13 +12076,13 @@
         <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>55</v>
@@ -12036,13 +12096,13 @@
         <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>55</v>
@@ -12056,13 +12116,13 @@
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>55</v>
@@ -12076,13 +12136,13 @@
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>55</v>
@@ -12093,7 +12153,7 @@
         <v>361</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
@@ -12110,16 +12170,16 @@
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O358" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12130,7 +12190,7 @@
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
@@ -12139,7 +12199,7 @@
         <v>87</v>
       </c>
       <c r="O359" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,7 +12210,7 @@
         <v>24</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>1</v>
@@ -12159,7 +12219,7 @@
         <v>26</v>
       </c>
       <c r="O360" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,19 +12227,19 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O361" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D361" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O361" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12187,19 +12247,19 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O362" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12210,7 +12270,7 @@
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -12219,7 +12279,7 @@
         <v>29</v>
       </c>
       <c r="O363" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12230,7 +12290,7 @@
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -12239,7 +12299,7 @@
         <v>35</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12250,7 +12310,7 @@
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -12259,7 +12319,7 @@
         <v>67</v>
       </c>
       <c r="O365" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12267,19 +12327,19 @@
         <v>361</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O366" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D366" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E366" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O366" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12287,19 +12347,19 @@
         <v>361</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O367" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12310,7 +12370,7 @@
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -12319,7 +12379,7 @@
         <v>87</v>
       </c>
       <c r="O368" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12330,7 +12390,7 @@
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -12339,7 +12399,7 @@
         <v>87</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12347,19 +12407,19 @@
         <v>361</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O370" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12367,19 +12427,19 @@
         <v>361</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O371" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D371" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E371" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O371" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12387,19 +12447,19 @@
         <v>361</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12410,7 +12470,7 @@
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -12419,7 +12479,7 @@
         <v>87</v>
       </c>
       <c r="O373" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12430,7 +12490,7 @@
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -12450,7 +12510,7 @@
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -12470,7 +12530,7 @@
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -12487,16 +12547,16 @@
         <v>361</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O377" s="3" t="s">
         <v>257</v>
@@ -12507,16 +12567,16 @@
         <v>361</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O378" s="3" t="s">
         <v>257</v>
@@ -12530,7 +12590,7 @@
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -12547,16 +12607,16 @@
         <v>361</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O380" s="3" t="s">
         <v>257</v>
@@ -12567,7 +12627,7 @@
         <v>361</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -12584,7 +12644,7 @@
         <v>361</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -12604,7 +12664,7 @@
         <v>361</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -12624,7 +12684,7 @@
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -12655,16 +12715,16 @@
         <v>361</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O386" s="3" t="s">
         <v>49</v>
@@ -12675,16 +12735,16 @@
         <v>361</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O387" s="3" t="s">
         <v>49</v>
@@ -12695,16 +12755,16 @@
         <v>361</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O388" s="3" t="s">
         <v>49</v>
@@ -12715,16 +12775,16 @@
         <v>361</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>49</v>
@@ -12735,16 +12795,16 @@
         <v>361</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>49</v>
@@ -12755,16 +12815,16 @@
         <v>361</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O391" s="3" t="s">
         <v>49</v>
@@ -12775,16 +12835,16 @@
         <v>361</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O392" s="3" t="s">
         <v>49</v>
@@ -12795,16 +12855,16 @@
         <v>361</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O393" s="3" t="s">
         <v>49</v>
@@ -12832,7 +12892,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12852,7 +12912,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12872,7 +12932,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12892,7 +12952,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12912,7 +12972,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12932,7 +12992,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12952,7 +13012,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12972,7 +13032,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12992,7 +13052,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -13012,7 +13072,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -13032,7 +13092,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -13055,10 +13115,10 @@
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O406" s="3" t="s">
         <v>257</v>
@@ -13072,7 +13132,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -13092,7 +13152,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -13112,7 +13172,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -13124,7 +13184,7 @@
         <v>257</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13135,7 +13195,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -13155,7 +13215,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -13175,7 +13235,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -13195,7 +13255,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -13215,7 +13275,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -13235,7 +13295,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -13252,7 +13312,7 @@
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
@@ -13272,7 +13332,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -13292,7 +13352,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -13312,7 +13372,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -13335,13 +13395,13 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>257</v>
@@ -13355,7 +13415,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -13375,7 +13435,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -13395,7 +13455,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -13415,7 +13475,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -13435,7 +13495,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -13455,7 +13515,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -13475,7 +13535,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -13495,7 +13555,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -13512,7 +13572,7 @@
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
@@ -13532,7 +13592,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -13552,7 +13612,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -13572,13 +13632,13 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>20</v>
@@ -13592,7 +13652,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -13601,7 +13661,7 @@
         <v>73</v>
       </c>
       <c r="O433" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13612,7 +13672,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -13621,7 +13681,7 @@
         <v>35</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13629,16 +13689,16 @@
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O435" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D435" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="P435" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13649,7 +13709,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -13669,7 +13729,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -13689,7 +13749,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -13709,7 +13769,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -13729,7 +13789,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -13749,7 +13809,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -13769,7 +13829,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -13789,7 +13849,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -13809,7 +13869,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -13829,7 +13889,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -13849,7 +13909,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -13866,7 +13926,7 @@
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
@@ -13875,7 +13935,7 @@
         <v>20</v>
       </c>
       <c r="Q447" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
